--- a/natmiOut/OldD2/LR-pairs_lrc2p/Angpt1-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Angpt1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.9121078772097</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H2">
-        <v>11.9121078772097</v>
+        <v>37.372216</v>
       </c>
       <c r="I2">
-        <v>0.7908786299679882</v>
+        <v>0.6879717553992525</v>
       </c>
       <c r="J2">
-        <v>0.7908786299679882</v>
+        <v>0.7643712760457567</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>1960.401072452262</v>
+        <v>2050.205767272143</v>
       </c>
       <c r="R2">
-        <v>1960.401072452262</v>
+        <v>12301.23460363286</v>
       </c>
       <c r="S2">
-        <v>0.1873821735362164</v>
+        <v>0.1596621096386702</v>
       </c>
       <c r="T2">
-        <v>0.1873821735362164</v>
+        <v>0.1380147269841764</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.9121078772097</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H3">
-        <v>11.9121078772097</v>
+        <v>37.372216</v>
       </c>
       <c r="I3">
-        <v>0.7908786299679882</v>
+        <v>0.6879717553992525</v>
       </c>
       <c r="J3">
-        <v>0.7908786299679882</v>
+        <v>0.7643712760457567</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>1326.666724624989</v>
+        <v>1479.495373036949</v>
       </c>
       <c r="R3">
-        <v>1326.666724624989</v>
+        <v>13315.45835733254</v>
       </c>
       <c r="S3">
-        <v>0.1268075690794426</v>
+        <v>0.1152173875571657</v>
       </c>
       <c r="T3">
-        <v>0.1268075690794426</v>
+        <v>0.149393894927725</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.9121078772097</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H4">
-        <v>11.9121078772097</v>
+        <v>37.372216</v>
       </c>
       <c r="I4">
-        <v>0.7908786299679882</v>
+        <v>0.6879717553992525</v>
       </c>
       <c r="J4">
-        <v>0.7908786299679882</v>
+        <v>0.7643712760457567</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>1000.874970408991</v>
+        <v>1053.048851968904</v>
       </c>
       <c r="R4">
-        <v>1000.874970408991</v>
+        <v>9477.439667720137</v>
       </c>
       <c r="S4">
-        <v>0.09566722342108894</v>
+        <v>0.08200737893818305</v>
       </c>
       <c r="T4">
-        <v>0.09566722342108894</v>
+        <v>0.1063329243280269</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.9121078772097</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H5">
-        <v>11.9121078772097</v>
+        <v>37.372216</v>
       </c>
       <c r="I5">
-        <v>0.7908786299679882</v>
+        <v>0.6879717553992525</v>
       </c>
       <c r="J5">
-        <v>0.7908786299679882</v>
+        <v>0.7643712760457567</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>941.0719791021958</v>
+        <v>992.0542146660755</v>
       </c>
       <c r="R5">
-        <v>941.0719791021958</v>
+        <v>8928.487931994681</v>
       </c>
       <c r="S5">
-        <v>0.0899510387829031</v>
+        <v>0.07725735207557573</v>
       </c>
       <c r="T5">
-        <v>0.0899510387829031</v>
+        <v>0.1001739145721066</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.9121078772097</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H6">
-        <v>11.9121078772097</v>
+        <v>37.372216</v>
       </c>
       <c r="I6">
-        <v>0.7908786299679882</v>
+        <v>0.6879717553992525</v>
       </c>
       <c r="J6">
-        <v>0.7908786299679882</v>
+        <v>0.7643712760457567</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>1382.695026984528</v>
+        <v>1516.480861345781</v>
       </c>
       <c r="R6">
-        <v>1382.695026984528</v>
+        <v>13648.32775211203</v>
       </c>
       <c r="S6">
-        <v>0.1321629553946224</v>
+        <v>0.1180976745916039</v>
       </c>
       <c r="T6">
-        <v>0.1321629553946224</v>
+        <v>0.1531285508482219</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.9121078772097</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H7">
-        <v>11.9121078772097</v>
+        <v>37.372216</v>
       </c>
       <c r="I7">
-        <v>0.7908786299679882</v>
+        <v>0.6879717553992525</v>
       </c>
       <c r="J7">
-        <v>0.7908786299679882</v>
+        <v>0.7643712760457567</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>1662.499480751633</v>
+        <v>1742.893960359711</v>
       </c>
       <c r="R7">
-        <v>1662.499480751633</v>
+        <v>10457.36376215826</v>
       </c>
       <c r="S7">
-        <v>0.1589076697537147</v>
+        <v>0.1357298525980541</v>
       </c>
       <c r="T7">
-        <v>0.1589076697537147</v>
+        <v>0.1173272643855</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.1497580347468</v>
+        <v>0.2204733333333333</v>
       </c>
       <c r="H8">
-        <v>3.1497580347468</v>
+        <v>0.66142</v>
       </c>
       <c r="I8">
-        <v>0.2091213700320118</v>
+        <v>0.01217584417408306</v>
       </c>
       <c r="J8">
-        <v>0.2091213700320118</v>
+        <v>0.01352797622175213</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>518.3624168730365</v>
+        <v>36.28489941803667</v>
       </c>
       <c r="R8">
-        <v>518.3624168730365</v>
+        <v>217.70939650822</v>
       </c>
       <c r="S8">
-        <v>0.04954694104082171</v>
+        <v>0.002825727876484746</v>
       </c>
       <c r="T8">
-        <v>0.04954694104082171</v>
+        <v>0.002442608720924496</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.1497580347468</v>
+        <v>0.2204733333333333</v>
       </c>
       <c r="H9">
-        <v>3.1497580347468</v>
+        <v>0.66142</v>
       </c>
       <c r="I9">
-        <v>0.2091213700320118</v>
+        <v>0.01217584417408306</v>
       </c>
       <c r="J9">
-        <v>0.2091213700320118</v>
+        <v>0.01352797622175213</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>350.7925900598541</v>
+        <v>26.18436727525333</v>
       </c>
       <c r="R9">
-        <v>350.7925900598541</v>
+        <v>235.65930547728</v>
       </c>
       <c r="S9">
-        <v>0.03353001531650358</v>
+        <v>0.002039137429743543</v>
       </c>
       <c r="T9">
-        <v>0.03353001531650358</v>
+        <v>0.002643999220787331</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.1497580347468</v>
+        <v>0.2204733333333333</v>
       </c>
       <c r="H10">
-        <v>3.1497580347468</v>
+        <v>0.66142</v>
       </c>
       <c r="I10">
-        <v>0.2091213700320118</v>
+        <v>0.01217584417408306</v>
       </c>
       <c r="J10">
-        <v>0.2091213700320118</v>
+        <v>0.01352797622175213</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>264.6478702441981</v>
+        <v>18.63704233298</v>
       </c>
       <c r="R10">
-        <v>264.6478702441981</v>
+        <v>167.73338099682</v>
       </c>
       <c r="S10">
-        <v>0.025295993684627</v>
+        <v>0.001451380902253509</v>
       </c>
       <c r="T10">
-        <v>0.025295993684627</v>
+        <v>0.001881898649227639</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.1497580347468</v>
+        <v>0.2204733333333333</v>
       </c>
       <c r="H11">
-        <v>3.1497580347468</v>
+        <v>0.66142</v>
       </c>
       <c r="I11">
-        <v>0.2091213700320118</v>
+        <v>0.01217584417408306</v>
       </c>
       <c r="J11">
-        <v>0.2091213700320118</v>
+        <v>0.01352797622175213</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>248.8349717788602</v>
+        <v>17.55754859878889</v>
       </c>
       <c r="R11">
-        <v>248.8349717788602</v>
+        <v>158.0179373891</v>
       </c>
       <c r="S11">
-        <v>0.02378454007139466</v>
+        <v>0.00136731409798732</v>
       </c>
       <c r="T11">
-        <v>0.02378454007139466</v>
+        <v>0.001772895419856365</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.1497580347468</v>
+        <v>0.2204733333333333</v>
       </c>
       <c r="H12">
-        <v>3.1497580347468</v>
+        <v>0.66142</v>
       </c>
       <c r="I12">
-        <v>0.2091213700320118</v>
+        <v>0.01217584417408306</v>
       </c>
       <c r="J12">
-        <v>0.2091213700320118</v>
+        <v>0.01352797622175213</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>365.6073984337618</v>
+        <v>26.83894290109333</v>
       </c>
       <c r="R12">
-        <v>365.6073984337618</v>
+        <v>241.55048610984</v>
       </c>
       <c r="S12">
-        <v>0.03494606789504704</v>
+        <v>0.002090113252272187</v>
       </c>
       <c r="T12">
-        <v>0.03494606789504704</v>
+        <v>0.00271009581294379</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2204733333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.66142</v>
+      </c>
+      <c r="I13">
+        <v>0.01217584417408306</v>
+      </c>
+      <c r="J13">
+        <v>0.01352797622175213</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>139.9082645</v>
+      </c>
+      <c r="N13">
+        <v>279.816529</v>
+      </c>
+      <c r="O13">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P13">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q13">
+        <v>30.84604143519667</v>
+      </c>
+      <c r="R13">
+        <v>185.07624861118</v>
+      </c>
+      <c r="S13">
+        <v>0.002402170615341753</v>
+      </c>
+      <c r="T13">
+        <v>0.002076478398012507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.4295585</v>
+      </c>
+      <c r="H14">
+        <v>10.859117</v>
+      </c>
+      <c r="I14">
+        <v>0.2998524004266644</v>
+      </c>
+      <c r="J14">
+        <v>0.2221007477324911</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>164.5772705</v>
+      </c>
+      <c r="N14">
+        <v>329.154541</v>
+      </c>
+      <c r="O14">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P14">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q14">
+        <v>893.5819179500742</v>
+      </c>
+      <c r="R14">
+        <v>3574.327671800297</v>
+      </c>
+      <c r="S14">
+        <v>0.06958870979311799</v>
+      </c>
+      <c r="T14">
+        <v>0.04010246724583388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.4295585</v>
+      </c>
+      <c r="H15">
+        <v>10.859117</v>
+      </c>
+      <c r="I15">
+        <v>0.2998524004266644</v>
+      </c>
+      <c r="J15">
+        <v>0.2221007477324911</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>118.764328</v>
+      </c>
+      <c r="N15">
+        <v>356.292984</v>
+      </c>
+      <c r="O15">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P15">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q15">
+        <v>644.8378665891879</v>
+      </c>
+      <c r="R15">
+        <v>3869.027199535128</v>
+      </c>
+      <c r="S15">
+        <v>0.05021748343412146</v>
+      </c>
+      <c r="T15">
+        <v>0.04340887316143821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.4295585</v>
+      </c>
+      <c r="H16">
+        <v>10.859117</v>
+      </c>
+      <c r="I16">
+        <v>0.2998524004266644</v>
+      </c>
+      <c r="J16">
+        <v>0.2221007477324911</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N16">
+        <v>253.595871</v>
+      </c>
+      <c r="O16">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P16">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q16">
+        <v>458.9712056509845</v>
+      </c>
+      <c r="R16">
+        <v>2753.827233905907</v>
+      </c>
+      <c r="S16">
+        <v>0.03574290548169791</v>
+      </c>
+      <c r="T16">
+        <v>0.03089679419144399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.4295585</v>
+      </c>
+      <c r="H17">
+        <v>10.859117</v>
+      </c>
+      <c r="I17">
+        <v>0.2998524004266644</v>
+      </c>
+      <c r="J17">
+        <v>0.2221007477324911</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N17">
+        <v>238.907105</v>
+      </c>
+      <c r="O17">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P17">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q17">
+        <v>432.3867008877141</v>
+      </c>
+      <c r="R17">
+        <v>2594.320205326285</v>
+      </c>
+      <c r="S17">
+        <v>0.03367260688925443</v>
+      </c>
+      <c r="T17">
+        <v>0.02910719178885488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.1497580347468</v>
-      </c>
-      <c r="H13">
-        <v>3.1497580347468</v>
-      </c>
-      <c r="I13">
-        <v>0.2091213700320118</v>
-      </c>
-      <c r="J13">
-        <v>0.2091213700320118</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>139.563836886697</v>
-      </c>
-      <c r="N13">
-        <v>139.563836886697</v>
-      </c>
-      <c r="O13">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="P13">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="Q13">
-        <v>439.5923165939657</v>
-      </c>
-      <c r="R13">
-        <v>439.5923165939657</v>
-      </c>
-      <c r="S13">
-        <v>0.04201781202361779</v>
-      </c>
-      <c r="T13">
-        <v>0.04201781202361779</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.4295585</v>
+      </c>
+      <c r="H18">
+        <v>10.859117</v>
+      </c>
+      <c r="I18">
+        <v>0.2998524004266644</v>
+      </c>
+      <c r="J18">
+        <v>0.2221007477324911</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>121.733284</v>
+      </c>
+      <c r="N18">
+        <v>365.199852</v>
+      </c>
+      <c r="O18">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P18">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q18">
+        <v>660.9579868751139</v>
+      </c>
+      <c r="R18">
+        <v>3965.747921250683</v>
+      </c>
+      <c r="S18">
+        <v>0.05147285616478378</v>
+      </c>
+      <c r="T18">
+        <v>0.04449403936071895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.4295585</v>
+      </c>
+      <c r="H19">
+        <v>10.859117</v>
+      </c>
+      <c r="I19">
+        <v>0.2998524004266644</v>
+      </c>
+      <c r="J19">
+        <v>0.2221007477324911</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>139.9082645</v>
+      </c>
+      <c r="N19">
+        <v>279.816529</v>
+      </c>
+      <c r="O19">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P19">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q19">
+        <v>759.6401067362232</v>
+      </c>
+      <c r="R19">
+        <v>3038.560426944893</v>
+      </c>
+      <c r="S19">
+        <v>0.05915783866368893</v>
+      </c>
+      <c r="T19">
+        <v>0.03409138198420123</v>
       </c>
     </row>
   </sheetData>
